--- a/1proc_balanced_varyingThreadCounts.xlsx
+++ b/1proc_balanced_varyingThreadCounts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,21 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35500" yWindow="1020" windowWidth="33720" windowHeight="18700"/>
+    <workbookView xWindow="2140" yWindow="1260" windowWidth="33720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1proc_barriers_mva_balanced_var" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -594,10 +590,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -605,21 +598,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2500" baseline="0"/>
+              <a:rPr lang="en-US" sz="2500" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Multithreaded SpMV Time Computation Time</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" baseline="0"/>
-              <a:t>(1 MPI Process)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14188853729732379"/>
+          <c:y val="2.0289855072463767E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -635,10 +631,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -656,10 +649,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15198530674319916"/>
-          <c:y val="0.17222162383004011"/>
-          <c:w val="0.82445556454975844"/>
-          <c:h val="0.65638505046024187"/>
+          <c:x val="0.13329371795815242"/>
+          <c:y val="0.14613465708090836"/>
+          <c:w val="0.84314715333480517"/>
+          <c:h val="0.68247198448020086"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -754,52 +747,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.2855899999999998E-3</c:v>
+                  <c:v>1.339797E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6637099999999997E-3</c:v>
+                  <c:v>9.896412000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5913E-3</c:v>
+                  <c:v>7.1495409999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0543800000000002E-3</c:v>
+                  <c:v>5.8939924999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6662299999999999E-3</c:v>
+                  <c:v>5.0809034999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5203199999999999E-3</c:v>
+                  <c:v>4.4983265000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6476400000000001E-3</c:v>
+                  <c:v>4.2034849999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4290100000000001E-3</c:v>
+                  <c:v>4.037606E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2336700000000001E-3</c:v>
+                  <c:v>5.7551980000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8150100000000002E-3</c:v>
+                  <c:v>5.3855310000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7062900000000001E-3</c:v>
+                  <c:v>5.5680514999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3469200000000002E-3</c:v>
+                  <c:v>6.4106694999999988E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6688599999999999E-3</c:v>
+                  <c:v>6.4212089999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9613999999999999E-3</c:v>
+                  <c:v>7.7668440000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7546900000000002E-3</c:v>
+                  <c:v>6.9379914999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.67935E-3</c:v>
+                  <c:v>7.020361000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,52 +893,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.7161799999999996E-3</c:v>
+                  <c:v>5.9599049999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7831499999999999E-3</c:v>
+                  <c:v>4.1628594999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.67403E-3</c:v>
+                  <c:v>3.1638265000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0319700000000002E-3</c:v>
+                  <c:v>2.5947795000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5613300000000001E-3</c:v>
+                  <c:v>2.2471665000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5167499999999999E-3</c:v>
+                  <c:v>2.1070130000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6509799999999998E-3</c:v>
+                  <c:v>1.9462475000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7525399999999999E-3</c:v>
+                  <c:v>1.9165884999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.33548E-3</c:v>
+                  <c:v>2.4901975000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.85864E-3</c:v>
+                  <c:v>2.416634E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2589400000000001E-3</c:v>
+                  <c:v>2.3862005000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6285599999999998E-3</c:v>
+                  <c:v>2.4152405000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3284899999999999E-3</c:v>
+                  <c:v>2.4436954999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.50826E-3</c:v>
+                  <c:v>2.2671455000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9337399999999998E-3</c:v>
+                  <c:v>2.7139539999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5568000000000001E-3</c:v>
+                  <c:v>2.7181274999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,52 +1039,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.5993500000000004E-3</c:v>
+                  <c:v>9.8787790000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.58217E-3</c:v>
+                  <c:v>8.3914279999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7183799999999999E-3</c:v>
+                  <c:v>6.9639680000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0174300000000002E-3</c:v>
+                  <c:v>6.1957229999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5796899999999999E-3</c:v>
+                  <c:v>5.8119649999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5699099999999999E-3</c:v>
+                  <c:v>5.4854749999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.40135E-3</c:v>
+                  <c:v>5.2660584999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4523700000000002E-3</c:v>
+                  <c:v>5.1017884999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2067300000000001E-3</c:v>
+                  <c:v>5.3718455000000016E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9210999999999998E-3</c:v>
+                  <c:v>5.2233219999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9082299999999999E-3</c:v>
+                  <c:v>5.0674200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.17264E-3</c:v>
+                  <c:v>5.0850619999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.02768E-3</c:v>
+                  <c:v>5.0971385000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4361600000000001E-3</c:v>
+                  <c:v>5.2178975000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8514899999999999E-3</c:v>
+                  <c:v>5.1515689999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7346599999999999E-3</c:v>
+                  <c:v>5.0258405000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,52 +1185,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.2188399999999998E-3</c:v>
+                  <c:v>1.9964534999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9507600000000002E-3</c:v>
+                  <c:v>1.4436580000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7336299999999999E-3</c:v>
+                  <c:v>1.1286775000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0326799999999998E-3</c:v>
+                  <c:v>9.6810814999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5467900000000002E-3</c:v>
+                  <c:v>8.6032265E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6242700000000002E-3</c:v>
+                  <c:v>7.9753984999999979E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.37083E-3</c:v>
+                  <c:v>7.5406320000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7615999999999999E-3</c:v>
+                  <c:v>7.4486375000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3257E-3</c:v>
+                  <c:v>8.4915760000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0939600000000002E-3</c:v>
+                  <c:v>8.0195904999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.82264E-3</c:v>
+                  <c:v>7.7163934999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8318599999999999E-3</c:v>
+                  <c:v>7.483029999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6450200000000001E-3</c:v>
+                  <c:v>9.1996930000000018E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4385499999999998E-3</c:v>
+                  <c:v>8.6453685000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.85959E-3</c:v>
+                  <c:v>8.8513609999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1108100000000003E-3</c:v>
+                  <c:v>9.4242154999999994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,52 +1331,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.9360000000000003E-3</c:v>
+                  <c:v>8.7071530000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6024300000000002E-3</c:v>
+                  <c:v>5.8852900000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5696E-3</c:v>
+                  <c:v>4.556025E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9697399999999998E-3</c:v>
+                  <c:v>3.7395239999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6068699999999998E-3</c:v>
+                  <c:v>3.2998210000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.48146E-3</c:v>
+                  <c:v>2.9758220000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5386800000000002E-3</c:v>
+                  <c:v>2.8205039999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8219199999999999E-3</c:v>
+                  <c:v>2.6271335E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2000499999999999E-3</c:v>
+                  <c:v>3.1651255000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0031200000000002E-3</c:v>
+                  <c:v>3.1688330000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7852100000000002E-3</c:v>
+                  <c:v>3.0617715000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7437199999999998E-3</c:v>
+                  <c:v>3.0526629999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0524699999999998E-3</c:v>
+                  <c:v>3.0132774999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9897700000000001E-3</c:v>
+                  <c:v>3.0800235E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8665100000000001E-3</c:v>
+                  <c:v>3.3425335000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5870799999999998E-3</c:v>
+                  <c:v>2.9122225000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,52 +1477,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.9081099999999994E-3</c:v>
+                  <c:v>4.084515500000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7946000000000004E-3</c:v>
+                  <c:v>2.8668765000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5538700000000002E-3</c:v>
+                  <c:v>2.1884560000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1731099999999998E-3</c:v>
+                  <c:v>1.8159864999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5460700000000001E-3</c:v>
+                  <c:v>1.7080420000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7251200000000001E-3</c:v>
+                  <c:v>1.5490415000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6242700000000002E-3</c:v>
+                  <c:v>1.4978775000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5594200000000002E-3</c:v>
+                  <c:v>1.5024299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1139900000000001E-3</c:v>
+                  <c:v>1.8607985000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1731099999999998E-3</c:v>
+                  <c:v>1.8105025E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9076800000000002E-3</c:v>
+                  <c:v>1.7435910000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5916099999999998E-3</c:v>
+                  <c:v>1.7653350000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3944399999999998E-3</c:v>
+                  <c:v>1.7550825E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8638800000000001E-3</c:v>
+                  <c:v>1.7906419999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8016600000000001E-3</c:v>
+                  <c:v>1.8207905000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.45166E-3</c:v>
+                  <c:v>1.9440655000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,52 +1627,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.8051099999999997E-3</c:v>
+                  <c:v>3.2008830000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6556000000000002E-3</c:v>
+                  <c:v>2.046804E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5350300000000002E-3</c:v>
+                  <c:v>1.4809955E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1154199999999998E-3</c:v>
+                  <c:v>1.1904354999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5415400000000001E-3</c:v>
+                  <c:v>1.0181079999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7201199999999999E-3</c:v>
+                  <c:v>9.1525920000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6285599999999998E-3</c:v>
+                  <c:v>8.6256855000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3551000000000002E-3</c:v>
+                  <c:v>8.3946105000000017E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.22032E-3</c:v>
+                  <c:v>1.169473E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1261399999999999E-3</c:v>
+                  <c:v>1.0830070000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9947799999999998E-3</c:v>
+                  <c:v>1.1684915000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5789699999999999E-3</c:v>
+                  <c:v>1.1523596000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9618700000000001E-3</c:v>
+                  <c:v>1.3004758999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4692999999999998E-3</c:v>
+                  <c:v>1.4896758999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6904799999999999E-3</c:v>
+                  <c:v>1.3618461000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0194999999999996E-3</c:v>
+                  <c:v>1.2747592999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,52 +1777,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.7862699999999996E-3</c:v>
+                  <c:v>1.1608775000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7569300000000004E-3</c:v>
+                  <c:v>7.2279565000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6563899999999998E-3</c:v>
+                  <c:v>5.6084739999999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2169799999999999E-3</c:v>
+                  <c:v>4.4601924999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.64525E-3</c:v>
+                  <c:v>4.3740624999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6662299999999999E-3</c:v>
+                  <c:v>4.0747885000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9282599999999998E-3</c:v>
+                  <c:v>3.6622170000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3207700000000002E-3</c:v>
+                  <c:v>3.4299730000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0171899999999999E-3</c:v>
+                  <c:v>3.946339499999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.99644E-3</c:v>
+                  <c:v>3.9236549999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2587100000000002E-3</c:v>
+                  <c:v>4.2518390000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7477700000000001E-3</c:v>
+                  <c:v>4.1354180000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.53558E-3</c:v>
+                  <c:v>4.2553784999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7349899999999997E-3</c:v>
+                  <c:v>4.3295860000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4092200000000001E-3</c:v>
+                  <c:v>4.0295249999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7430100000000002E-3</c:v>
+                  <c:v>4.6274190000000007E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,52 +1927,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.3742900000000004E-3</c:v>
+                  <c:v>4.073446E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5387700000000001E-3</c:v>
+                  <c:v>2.9964904999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.85404E-3</c:v>
+                  <c:v>2.5248355E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1921900000000001E-3</c:v>
+                  <c:v>2.1636320000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.64978E-3</c:v>
+                  <c:v>1.8764110000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6943700000000002E-3</c:v>
+                  <c:v>1.6418549999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6061499999999998E-3</c:v>
+                  <c:v>1.4986460000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.43998E-3</c:v>
+                  <c:v>1.3533054999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1001599999999998E-3</c:v>
+                  <c:v>1.4626955000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8295500000000001E-3</c:v>
+                  <c:v>1.4011784999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4122499999999999E-3</c:v>
+                  <c:v>1.3590529999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6550300000000001E-3</c:v>
+                  <c:v>1.3021285000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6712400000000001E-3</c:v>
+                  <c:v>1.2604745000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9685499999999999E-3</c:v>
+                  <c:v>1.3105180000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9392200000000002E-3</c:v>
+                  <c:v>1.2494540000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5440200000000002E-3</c:v>
+                  <c:v>1.3672295000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,52 +2077,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.6744600000000001E-3</c:v>
+                  <c:v>3.2963264999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8749400000000003E-3</c:v>
+                  <c:v>2.1211575E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.77488E-3</c:v>
+                  <c:v>1.503966E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.14021E-3</c:v>
+                  <c:v>1.221354E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7096300000000002E-3</c:v>
+                  <c:v>1.0577630000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5236600000000001E-3</c:v>
+                  <c:v>9.8121064999999973E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4006399999999999E-3</c:v>
+                  <c:v>9.6058129999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6397700000000001E-3</c:v>
+                  <c:v>9.3994969999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1220900000000001E-3</c:v>
+                  <c:v>9.9493749999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1023000000000001E-3</c:v>
+                  <c:v>1.02645545E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0410300000000001E-3</c:v>
+                  <c:v>1.0073856000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7060500000000002E-3</c:v>
+                  <c:v>1.0052340999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0534300000000002E-3</c:v>
+                  <c:v>1.15337255E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.62451E-3</c:v>
+                  <c:v>1.17049005E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5501299999999998E-3</c:v>
+                  <c:v>1.1019114999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1027799999999999E-3</c:v>
+                  <c:v>1.1378579499999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,52 +2227,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.6889999999999997E-3</c:v>
+                  <c:v>1.8342449999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6837299999999997E-3</c:v>
+                  <c:v>1.2359865000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7815600000000002E-3</c:v>
+                  <c:v>7.5650344999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0961000000000001E-3</c:v>
+                  <c:v>7.2787199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4504700000000002E-3</c:v>
+                  <c:v>7.6713325000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5627599999999999E-3</c:v>
+                  <c:v>6.8454975000000013E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.48051E-3</c:v>
+                  <c:v>7.0854455000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.54893E-3</c:v>
+                  <c:v>7.0249094999999982E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1666799999999998E-3</c:v>
+                  <c:v>8.2186000000000013E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9573400000000001E-3</c:v>
+                  <c:v>7.7388149999999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3323799999999998E-3</c:v>
+                  <c:v>7.5056755000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7239299999999998E-3</c:v>
+                  <c:v>7.1243424999999985E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0658199999999999E-3</c:v>
+                  <c:v>7.575891999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.28517E-3</c:v>
+                  <c:v>8.5757240000000016E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9221500000000001E-3</c:v>
+                  <c:v>7.842613E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4143200000000002E-3</c:v>
+                  <c:v>7.4079030000000021E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,52 +2377,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.8964199999999995E-3</c:v>
+                  <c:v>1.8691795000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6823000000000004E-3</c:v>
+                  <c:v>9.6849445000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.72624E-3</c:v>
+                  <c:v>7.5671669999999979E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0274400000000002E-3</c:v>
+                  <c:v>6.9772005E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.71893E-3</c:v>
+                  <c:v>6.8887589999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5591899999999998E-3</c:v>
+                  <c:v>6.8240049999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5723E-3</c:v>
+                  <c:v>6.8724985000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.738E-3</c:v>
+                  <c:v>6.8520415000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.93159E-3</c:v>
+                  <c:v>8.2183610000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.67045E-3</c:v>
+                  <c:v>7.5728175000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7220199999999999E-3</c:v>
+                  <c:v>7.8595169999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7832299999999998E-3</c:v>
+                  <c:v>8.4240435000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0882399999999999E-3</c:v>
+                  <c:v>9.2032024999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5339099999999999E-3</c:v>
+                  <c:v>1.0340886999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.52724E-3</c:v>
+                  <c:v>9.3535275000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.17454E-3</c:v>
+                  <c:v>9.575593000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,52 +2529,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.4369900000000001E-3</c:v>
+                  <c:v>6.3597085000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6558399999999996E-3</c:v>
+                  <c:v>4.006207999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7078900000000001E-3</c:v>
+                  <c:v>3.3291454999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.24202E-3</c:v>
+                  <c:v>3.0844100000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7420500000000002E-3</c:v>
+                  <c:v>3.0478240000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9501900000000001E-3</c:v>
+                  <c:v>2.9056920000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3560500000000002E-3</c:v>
+                  <c:v>2.8961180000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6600399999999998E-3</c:v>
+                  <c:v>2.7732729999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9940600000000002E-3</c:v>
+                  <c:v>3.1607864999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9501900000000001E-3</c:v>
+                  <c:v>3.060246E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8011799999999999E-3</c:v>
+                  <c:v>2.9327275000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.92063E-3</c:v>
+                  <c:v>2.9916890000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6946100000000001E-3</c:v>
+                  <c:v>3.1706690000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0963399999999999E-3</c:v>
+                  <c:v>2.9908885000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8383700000000002E-3</c:v>
+                  <c:v>3.0867354999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6314300000000001E-3</c:v>
+                  <c:v>2.8754365E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,52 +2681,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.31111E-3</c:v>
+                  <c:v>1.0967895000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5661900000000004E-3</c:v>
+                  <c:v>7.3018430000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6609199999999998E-3</c:v>
+                  <c:v>5.9912804999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0663000000000001E-3</c:v>
+                  <c:v>5.1990635E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7520700000000001E-3</c:v>
+                  <c:v>4.8068410000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.53272E-3</c:v>
+                  <c:v>4.6218869999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6140199999999999E-3</c:v>
+                  <c:v>4.450655500000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6817299999999998E-3</c:v>
+                  <c:v>4.3097370000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0717800000000001E-3</c:v>
+                  <c:v>4.8087355000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.91348E-3</c:v>
+                  <c:v>4.6856514999999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0000199999999999E-3</c:v>
+                  <c:v>4.5004235000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5880299999999998E-3</c:v>
+                  <c:v>4.3045884999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0891899999999999E-3</c:v>
+                  <c:v>4.188561999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5208000000000001E-3</c:v>
+                  <c:v>4.165864E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2398700000000002E-3</c:v>
+                  <c:v>4.1151989999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7420500000000002E-3</c:v>
+                  <c:v>4.1067840000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,52 +2833,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.8628099999999996E-3</c:v>
+                  <c:v>8.5459589999999988E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7295100000000001E-3</c:v>
+                  <c:v>5.0246249999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.62992E-3</c:v>
+                  <c:v>3.8578040000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1740700000000002E-3</c:v>
+                  <c:v>3.4728059999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5403499999999998E-3</c:v>
+                  <c:v>3.4551494999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6576500000000001E-3</c:v>
+                  <c:v>3.3859374999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8097600000000001E-3</c:v>
+                  <c:v>3.4182559999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6397700000000001E-3</c:v>
+                  <c:v>3.3981200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0067000000000002E-3</c:v>
+                  <c:v>3.8595915000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.99644E-3</c:v>
+                  <c:v>4.0176995000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1266200000000001E-3</c:v>
+                  <c:v>3.7749045000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0317299999999998E-3</c:v>
+                  <c:v>3.9622900000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4244800000000001E-3</c:v>
+                  <c:v>4.3410175000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.43926E-3</c:v>
+                  <c:v>4.4095029999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4676300000000002E-3</c:v>
+                  <c:v>4.3541780000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6570999999999999E-3</c:v>
+                  <c:v>4.4138795000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,52 +2985,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8.0156299999999993E-3</c:v>
+                  <c:v>2.0873010000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5883699999999996E-3</c:v>
+                  <c:v>1.3501229999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7093199999999999E-3</c:v>
+                  <c:v>1.2341154999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.08633E-3</c:v>
+                  <c:v>1.1891725000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7508699999999999E-3</c:v>
+                  <c:v>1.1636419999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4614300000000001E-3</c:v>
+                  <c:v>1.173634E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6574099999999998E-3</c:v>
+                  <c:v>1.162231E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4082700000000001E-3</c:v>
+                  <c:v>1.1664654999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1750200000000002E-3</c:v>
+                  <c:v>1.2958429999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1652500000000001E-3</c:v>
+                  <c:v>1.2681575E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7277500000000001E-3</c:v>
+                  <c:v>1.2563539999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7310799999999999E-3</c:v>
+                  <c:v>1.2402304999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1518900000000001E-3</c:v>
+                  <c:v>1.1764624999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9397E-3</c:v>
+                  <c:v>1.1675815000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8758E-3</c:v>
+                  <c:v>1.1786930000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.9239700000000001E-3</c:v>
+                  <c:v>1.1518195000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,52 +3137,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.6265300000000003E-3</c:v>
+                  <c:v>2.2544825000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6460599999999996E-3</c:v>
+                  <c:v>2.1809565E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6997800000000002E-3</c:v>
+                  <c:v>2.1356084999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1652500000000001E-3</c:v>
+                  <c:v>2.1429004999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6702900000000001E-3</c:v>
+                  <c:v>2.137354E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6333300000000001E-3</c:v>
+                  <c:v>2.1377790000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7997500000000002E-3</c:v>
+                  <c:v>2.1372809999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5765900000000001E-3</c:v>
+                  <c:v>2.1412739999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2889799999999999E-3</c:v>
+                  <c:v>2.1428645E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9444699999999998E-3</c:v>
+                  <c:v>2.1554344999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9168100000000001E-3</c:v>
+                  <c:v>2.1566189999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0458E-3</c:v>
+                  <c:v>2.1424799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6357199999999998E-3</c:v>
+                  <c:v>2.1520900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9802299999999999E-3</c:v>
+                  <c:v>2.1533125E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8686499999999999E-3</c:v>
+                  <c:v>2.1400019999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8448100000000001E-3</c:v>
+                  <c:v>2.0933360000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,52 +3289,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.2753399999999999E-3</c:v>
+                  <c:v>0.14642869999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6019600000000004E-3</c:v>
+                  <c:v>0.10070938500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.65424E-3</c:v>
+                  <c:v>7.1951435000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0586699999999999E-3</c:v>
+                  <c:v>5.9581739999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7167799999999998E-3</c:v>
+                  <c:v>5.0439980000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7275099999999998E-3</c:v>
+                  <c:v>4.4846490000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2611599999999999E-3</c:v>
+                  <c:v>4.2138124999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4638199999999998E-3</c:v>
+                  <c:v>3.9066530000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1156500000000002E-3</c:v>
+                  <c:v>4.1870649999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9883399999999999E-3</c:v>
+                  <c:v>4.0422515000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8107200000000001E-3</c:v>
+                  <c:v>3.8961829999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6473999999999998E-3</c:v>
+                  <c:v>3.904980000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5694400000000001E-3</c:v>
+                  <c:v>3.745163E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3915799999999999E-3</c:v>
+                  <c:v>3.6051889999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3278499999999998E-3</c:v>
+                  <c:v>3.5780294999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8903499999999999E-3</c:v>
+                  <c:v>3.4786754999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,52 +3439,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.8048700000000002E-3</c:v>
+                  <c:v>6.7574919999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5874100000000001E-3</c:v>
+                  <c:v>5.8482565000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5886799999999999E-3</c:v>
+                  <c:v>3.8488745000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.05653E-3</c:v>
+                  <c:v>2.717139E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.54989E-3</c:v>
+                  <c:v>2.3832840000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6269000000000002E-3</c:v>
+                  <c:v>2.1387985000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.42472E-3</c:v>
+                  <c:v>1.8670229999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.34008E-3</c:v>
+                  <c:v>1.6546310000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1616700000000001E-3</c:v>
+                  <c:v>1.6364009999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.99191E-3</c:v>
+                  <c:v>1.5230315000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2219900000000001E-3</c:v>
+                  <c:v>1.5502014999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.26085E-3</c:v>
+                  <c:v>1.6650495000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6643299999999999E-3</c:v>
+                  <c:v>1.6741335E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5270000000000002E-3</c:v>
+                  <c:v>1.6088885000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7134400000000001E-3</c:v>
+                  <c:v>1.5081990000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8123900000000001E-3</c:v>
+                  <c:v>1.4379134999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,52 +3589,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.5106599999999997E-3</c:v>
+                  <c:v>1.2556764999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7471500000000003E-3</c:v>
+                  <c:v>8.4056145000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7500900000000002E-3</c:v>
+                  <c:v>6.3025600000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.01528E-3</c:v>
+                  <c:v>5.1432370000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.86937E-3</c:v>
+                  <c:v>4.4658069999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.702E-3</c:v>
+                  <c:v>3.8096305000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5298600000000001E-3</c:v>
+                  <c:v>3.5670989999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5019600000000001E-3</c:v>
+                  <c:v>3.4266459999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.00622E-3</c:v>
+                  <c:v>3.9296984999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9625900000000002E-3</c:v>
+                  <c:v>3.7125459999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7816300000000002E-3</c:v>
+                  <c:v>3.6031960000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.89457E-3</c:v>
+                  <c:v>3.7854315000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5699099999999999E-3</c:v>
+                  <c:v>4.1862480000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9654500000000001E-3</c:v>
+                  <c:v>4.2076000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7201199999999999E-3</c:v>
+                  <c:v>3.9516925000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8493400000000001E-3</c:v>
+                  <c:v>4.1091685000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,8 +3711,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41904309858463951"/>
-              <c:y val="0.91714073416879238"/>
+              <c:x val="0.36608359702700716"/>
+              <c:y val="0.91714070523793234"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3751,7 +3744,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3788,13 +3781,13 @@
         <c:crossAx val="1187622383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1187622383"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="8.2500000000000021E-3"/>
-          <c:min val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3857,8 +3850,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.6825969262240877E-3"/>
-              <c:y val="0.42663608676273956"/>
+              <c:x val="1.135550813157701E-2"/>
+              <c:y val="0.42663608353303656"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3887,7 +3880,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+0" sourceLinked="0"/>
+        <c:numFmt formatCode="0E+0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4540,16 +4533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4873,11 +4866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4878,7 @@
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4935,1004 +4928,1329 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.2855899999999998E-3</v>
+        <v>1.339797E-2</v>
       </c>
       <c r="B3">
-        <v>4.6637099999999997E-3</v>
+        <v>9.896412000000002E-3</v>
       </c>
       <c r="C3">
-        <v>3.5913E-3</v>
+        <v>7.1495409999999997E-3</v>
       </c>
       <c r="D3">
-        <v>3.0543800000000002E-3</v>
+        <v>5.8939924999999995E-3</v>
       </c>
       <c r="E3">
-        <v>2.6662299999999999E-3</v>
+        <v>5.0809034999999992E-3</v>
       </c>
       <c r="F3">
-        <v>2.5203199999999999E-3</v>
+        <v>4.4983265000000001E-3</v>
       </c>
       <c r="G3">
-        <v>2.6476400000000001E-3</v>
+        <v>4.2034849999999999E-3</v>
       </c>
       <c r="H3">
-        <v>2.4290100000000001E-3</v>
+        <v>4.037606E-3</v>
       </c>
       <c r="I3">
-        <v>3.2336700000000001E-3</v>
+        <v>5.7551980000000004E-3</v>
       </c>
       <c r="J3">
-        <v>2.8150100000000002E-3</v>
+        <v>5.3855310000000007E-3</v>
       </c>
       <c r="K3">
-        <v>2.7062900000000001E-3</v>
+        <v>5.5680514999999989E-3</v>
       </c>
       <c r="L3">
-        <v>3.3469200000000002E-3</v>
+        <v>6.4106694999999988E-3</v>
       </c>
       <c r="M3">
-        <v>2.6688599999999999E-3</v>
+        <v>6.4212089999999998E-3</v>
       </c>
       <c r="N3">
-        <v>2.9613999999999999E-3</v>
+        <v>7.7668440000000002E-3</v>
       </c>
       <c r="O3">
-        <v>2.7546900000000002E-3</v>
+        <v>6.9379914999999999E-3</v>
       </c>
       <c r="P3">
-        <v>2.67935E-3</v>
+        <v>7.020361000000001E-3</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.7161799999999996E-3</v>
+        <v>5.9599049999999997E-3</v>
       </c>
       <c r="B4">
-        <v>4.7831499999999999E-3</v>
+        <v>4.1628594999999994E-3</v>
       </c>
       <c r="C4">
-        <v>3.67403E-3</v>
+        <v>3.1638265000000004E-3</v>
       </c>
       <c r="D4">
-        <v>3.0319700000000002E-3</v>
+        <v>2.5947795000000004E-3</v>
       </c>
       <c r="E4">
-        <v>2.5613300000000001E-3</v>
+        <v>2.2471665000000003E-3</v>
       </c>
       <c r="F4">
-        <v>2.5167499999999999E-3</v>
+        <v>2.1070130000000005E-3</v>
       </c>
       <c r="G4">
-        <v>2.6509799999999998E-3</v>
+        <v>1.9462475000000001E-3</v>
       </c>
       <c r="H4">
-        <v>2.7525399999999999E-3</v>
+        <v>1.9165884999999996E-3</v>
       </c>
       <c r="I4">
-        <v>3.33548E-3</v>
+        <v>2.4901975000000002E-3</v>
       </c>
       <c r="J4">
-        <v>2.85864E-3</v>
+        <v>2.416634E-3</v>
       </c>
       <c r="K4">
-        <v>3.2589400000000001E-3</v>
+        <v>2.3862005000000004E-3</v>
       </c>
       <c r="L4">
-        <v>2.6285599999999998E-3</v>
+        <v>2.4152405000000001E-3</v>
       </c>
       <c r="M4">
-        <v>4.3284899999999999E-3</v>
+        <v>2.4436954999999998E-3</v>
       </c>
       <c r="N4">
-        <v>4.50826E-3</v>
+        <v>2.2671455000000005E-3</v>
       </c>
       <c r="O4">
-        <v>2.9337399999999998E-3</v>
+        <v>2.7139539999999993E-3</v>
       </c>
       <c r="P4">
-        <v>2.5568000000000001E-3</v>
+        <v>2.7181274999999996E-3</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.5993500000000004E-3</v>
+        <v>9.8787790000000007E-3</v>
       </c>
       <c r="B5">
-        <v>4.58217E-3</v>
+        <v>8.3914279999999994E-3</v>
       </c>
       <c r="C5">
-        <v>3.7183799999999999E-3</v>
+        <v>6.9639680000000009E-3</v>
       </c>
       <c r="D5">
-        <v>3.0174300000000002E-3</v>
+        <v>6.1957229999999993E-3</v>
       </c>
       <c r="E5">
-        <v>2.5796899999999999E-3</v>
+        <v>5.8119649999999997E-3</v>
       </c>
       <c r="F5">
-        <v>2.5699099999999999E-3</v>
+        <v>5.4854749999999992E-3</v>
       </c>
       <c r="G5">
-        <v>2.40135E-3</v>
+        <v>5.2660584999999994E-3</v>
       </c>
       <c r="H5">
-        <v>2.4523700000000002E-3</v>
+        <v>5.1017884999999992E-3</v>
       </c>
       <c r="I5">
-        <v>3.2067300000000001E-3</v>
+        <v>5.3718455000000016E-3</v>
       </c>
       <c r="J5">
-        <v>2.9210999999999998E-3</v>
+        <v>5.2233219999999999E-3</v>
       </c>
       <c r="K5">
-        <v>2.9082299999999999E-3</v>
+        <v>5.0674200000000004E-3</v>
       </c>
       <c r="L5">
-        <v>3.17264E-3</v>
+        <v>5.0850619999999996E-3</v>
       </c>
       <c r="M5">
-        <v>3.02768E-3</v>
+        <v>5.0971385000000008E-3</v>
       </c>
       <c r="N5">
-        <v>2.4361600000000001E-3</v>
+        <v>5.2178975000000006E-3</v>
       </c>
       <c r="O5">
-        <v>2.8514899999999999E-3</v>
+        <v>5.1515689999999999E-3</v>
       </c>
       <c r="P5">
-        <v>2.7346599999999999E-3</v>
+        <v>5.0258405000000008E-3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.2188399999999998E-3</v>
+        <v>1.9964534999999999E-2</v>
       </c>
       <c r="B6">
-        <v>4.9507600000000002E-3</v>
+        <v>1.4436580000000001E-2</v>
       </c>
       <c r="C6">
-        <v>3.7336299999999999E-3</v>
+        <v>1.1286775000000001E-2</v>
       </c>
       <c r="D6">
-        <v>3.0326799999999998E-3</v>
+        <v>9.6810814999999991E-3</v>
       </c>
       <c r="E6">
-        <v>2.5467900000000002E-3</v>
+        <v>8.6032265E-3</v>
       </c>
       <c r="F6">
-        <v>2.6242700000000002E-3</v>
+        <v>7.9753984999999979E-3</v>
       </c>
       <c r="G6">
-        <v>2.37083E-3</v>
+        <v>7.5406320000000002E-3</v>
       </c>
       <c r="H6">
-        <v>2.7615999999999999E-3</v>
+        <v>7.4486375000000007E-3</v>
       </c>
       <c r="I6">
-        <v>3.3257E-3</v>
+        <v>8.4915760000000007E-3</v>
       </c>
       <c r="J6">
-        <v>3.0939600000000002E-3</v>
+        <v>8.0195904999999998E-3</v>
       </c>
       <c r="K6">
-        <v>2.82264E-3</v>
+        <v>7.7163934999999991E-3</v>
       </c>
       <c r="L6">
-        <v>3.8318599999999999E-3</v>
+        <v>7.483029999999999E-3</v>
       </c>
       <c r="M6">
-        <v>2.6450200000000001E-3</v>
+        <v>9.1996930000000018E-3</v>
       </c>
       <c r="N6">
-        <v>2.4385499999999998E-3</v>
+        <v>8.6453685000000002E-3</v>
       </c>
       <c r="O6">
-        <v>2.85959E-3</v>
+        <v>8.8513609999999986E-3</v>
       </c>
       <c r="P6">
-        <v>4.1108100000000003E-3</v>
+        <v>9.4242154999999994E-3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7.9360000000000003E-3</v>
+        <v>8.7071530000000005E-3</v>
       </c>
       <c r="B7">
-        <v>4.6024300000000002E-3</v>
+        <v>5.8852900000000005E-3</v>
       </c>
       <c r="C7">
-        <v>3.5696E-3</v>
+        <v>4.556025E-3</v>
       </c>
       <c r="D7">
-        <v>2.9697399999999998E-3</v>
+        <v>3.7395239999999997E-3</v>
       </c>
       <c r="E7">
-        <v>2.6068699999999998E-3</v>
+        <v>3.2998210000000001E-3</v>
       </c>
       <c r="F7">
-        <v>2.48146E-3</v>
+        <v>2.9758220000000004E-3</v>
       </c>
       <c r="G7">
-        <v>2.5386800000000002E-3</v>
+        <v>2.8205039999999997E-3</v>
       </c>
       <c r="H7">
-        <v>2.8219199999999999E-3</v>
+        <v>2.6271335E-3</v>
       </c>
       <c r="I7">
-        <v>3.2000499999999999E-3</v>
+        <v>3.1651255000000001E-3</v>
       </c>
       <c r="J7">
-        <v>3.0031200000000002E-3</v>
+        <v>3.1688330000000007E-3</v>
       </c>
       <c r="K7">
-        <v>2.7852100000000002E-3</v>
+        <v>3.0617715000000006E-3</v>
       </c>
       <c r="L7">
-        <v>2.7437199999999998E-3</v>
+        <v>3.0526629999999997E-3</v>
       </c>
       <c r="M7">
-        <v>3.0524699999999998E-3</v>
+        <v>3.0132774999999997E-3</v>
       </c>
       <c r="N7">
-        <v>2.9897700000000001E-3</v>
+        <v>3.0800235E-3</v>
       </c>
       <c r="O7">
-        <v>2.8665100000000001E-3</v>
+        <v>3.3425335000000001E-3</v>
       </c>
       <c r="P7">
-        <v>2.5870799999999998E-3</v>
+        <v>2.9122225000000001E-3</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.9081099999999994E-3</v>
+        <v>4.084515500000001E-3</v>
       </c>
       <c r="B8">
-        <v>4.7946000000000004E-3</v>
+        <v>2.8668765000000001E-3</v>
       </c>
       <c r="C8">
-        <v>3.5538700000000002E-3</v>
+        <v>2.1884560000000001E-3</v>
       </c>
       <c r="D8">
-        <v>3.1731099999999998E-3</v>
+        <v>1.8159864999999996E-3</v>
       </c>
       <c r="E8">
-        <v>2.5460700000000001E-3</v>
+        <v>1.7080420000000003E-3</v>
       </c>
       <c r="F8">
-        <v>2.7251200000000001E-3</v>
+        <v>1.5490415000000005E-3</v>
       </c>
       <c r="G8">
-        <v>2.6242700000000002E-3</v>
+        <v>1.4978775000000003E-3</v>
       </c>
       <c r="H8">
-        <v>2.5594200000000002E-3</v>
+        <v>1.5024299999999999E-3</v>
       </c>
       <c r="I8">
-        <v>3.1139900000000001E-3</v>
+        <v>1.8607985000000005E-3</v>
       </c>
       <c r="J8">
-        <v>3.1731099999999998E-3</v>
+        <v>1.8105025E-3</v>
       </c>
       <c r="K8">
-        <v>3.9076800000000002E-3</v>
+        <v>1.7435910000000003E-3</v>
       </c>
       <c r="L8">
-        <v>2.5916099999999998E-3</v>
+        <v>1.7653350000000003E-3</v>
       </c>
       <c r="M8">
-        <v>2.3944399999999998E-3</v>
+        <v>1.7550825E-3</v>
       </c>
       <c r="N8">
-        <v>2.8638800000000001E-3</v>
+        <v>1.7906419999999996E-3</v>
       </c>
       <c r="O8">
-        <v>2.8016600000000001E-3</v>
+        <v>1.8207905000000003E-3</v>
       </c>
       <c r="P8">
-        <v>2.45166E-3</v>
+        <v>1.9440655000000004E-3</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7.8051099999999997E-3</v>
+        <v>3.2008830000000002E-2</v>
       </c>
       <c r="B9">
-        <v>4.6556000000000002E-3</v>
+        <v>2.046804E-2</v>
       </c>
       <c r="C9">
-        <v>3.5350300000000002E-3</v>
+        <v>1.4809955E-2</v>
       </c>
       <c r="D9">
-        <v>3.1154199999999998E-3</v>
+        <v>1.1904354999999998E-2</v>
       </c>
       <c r="E9">
-        <v>2.5415400000000001E-3</v>
+        <v>1.0181079999999999E-2</v>
       </c>
       <c r="F9">
-        <v>2.7201199999999999E-3</v>
+        <v>9.1525920000000011E-3</v>
       </c>
       <c r="G9">
-        <v>2.6285599999999998E-3</v>
+        <v>8.6256855000000007E-3</v>
       </c>
       <c r="H9">
-        <v>2.3551000000000002E-3</v>
+        <v>8.3946105000000017E-3</v>
       </c>
       <c r="I9">
-        <v>3.22032E-3</v>
+        <v>1.169473E-2</v>
       </c>
       <c r="J9">
-        <v>3.1261399999999999E-3</v>
+        <v>1.0830070000000001E-2</v>
       </c>
       <c r="K9">
-        <v>2.9947799999999998E-3</v>
+        <v>1.1684915000000001E-2</v>
       </c>
       <c r="L9">
-        <v>2.5789699999999999E-3</v>
+        <v>1.1523596000000001E-2</v>
       </c>
       <c r="M9">
-        <v>2.9618700000000001E-3</v>
+        <v>1.3004758999999999E-2</v>
       </c>
       <c r="N9">
-        <v>2.4692999999999998E-3</v>
+        <v>1.4896758999999999E-2</v>
       </c>
       <c r="O9">
-        <v>3.6904799999999999E-3</v>
+        <v>1.3618461000000002E-2</v>
       </c>
       <c r="P9">
-        <v>4.0194999999999996E-3</v>
+        <v>1.2747592999999998E-2</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7.7862699999999996E-3</v>
+        <v>1.1608775000000002E-2</v>
       </c>
       <c r="B10">
-        <v>4.7569300000000004E-3</v>
+        <v>7.2279565000000004E-3</v>
       </c>
       <c r="C10">
-        <v>3.6563899999999998E-3</v>
+        <v>5.6084739999999987E-3</v>
       </c>
       <c r="D10">
-        <v>3.2169799999999999E-3</v>
+        <v>4.4601924999999997E-3</v>
       </c>
       <c r="E10">
-        <v>2.64525E-3</v>
+        <v>4.3740624999999995E-3</v>
       </c>
       <c r="F10">
-        <v>2.6662299999999999E-3</v>
+        <v>4.0747885000000008E-3</v>
       </c>
       <c r="G10">
-        <v>2.9282599999999998E-3</v>
+        <v>3.6622170000000002E-3</v>
       </c>
       <c r="H10">
-        <v>2.3207700000000002E-3</v>
+        <v>3.4299730000000002E-3</v>
       </c>
       <c r="I10">
-        <v>3.0171899999999999E-3</v>
+        <v>3.946339499999999E-3</v>
       </c>
       <c r="J10">
-        <v>2.99644E-3</v>
+        <v>3.9236549999999999E-3</v>
       </c>
       <c r="K10">
-        <v>3.2587100000000002E-3</v>
+        <v>4.2518390000000003E-3</v>
       </c>
       <c r="L10">
-        <v>2.7477700000000001E-3</v>
+        <v>4.1354180000000001E-3</v>
       </c>
       <c r="M10">
-        <v>2.53558E-3</v>
+        <v>4.2553784999999986E-3</v>
       </c>
       <c r="N10">
-        <v>4.7349899999999997E-3</v>
+        <v>4.3295860000000007E-3</v>
       </c>
       <c r="O10">
-        <v>2.4092200000000001E-3</v>
+        <v>4.0295249999999999E-3</v>
       </c>
       <c r="P10">
-        <v>2.7430100000000002E-3</v>
+        <v>4.6274190000000007E-3</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7.3742900000000004E-3</v>
+        <v>4.073446E-2</v>
       </c>
       <c r="B11">
-        <v>4.5387700000000001E-3</v>
+        <v>2.9964904999999997E-2</v>
       </c>
       <c r="C11">
-        <v>3.85404E-3</v>
+        <v>2.5248355E-2</v>
       </c>
       <c r="D11">
-        <v>3.1921900000000001E-3</v>
+        <v>2.1636320000000001E-2</v>
       </c>
       <c r="E11">
-        <v>2.64978E-3</v>
+        <v>1.8764110000000001E-2</v>
       </c>
       <c r="F11">
-        <v>2.6943700000000002E-3</v>
+        <v>1.6418549999999997E-2</v>
       </c>
       <c r="G11">
-        <v>2.6061499999999998E-3</v>
+        <v>1.4986460000000002E-2</v>
       </c>
       <c r="H11">
-        <v>2.43998E-3</v>
+        <v>1.3533054999999999E-2</v>
       </c>
       <c r="I11">
-        <v>3.1001599999999998E-3</v>
+        <v>1.4626955000000002E-2</v>
       </c>
       <c r="J11">
-        <v>2.8295500000000001E-3</v>
+        <v>1.4011784999999999E-2</v>
       </c>
       <c r="K11">
-        <v>3.4122499999999999E-3</v>
+        <v>1.3590529999999998E-2</v>
       </c>
       <c r="L11">
-        <v>2.6550300000000001E-3</v>
+        <v>1.3021285000000002E-2</v>
       </c>
       <c r="M11">
-        <v>2.6712400000000001E-3</v>
+        <v>1.2604745000000004E-2</v>
       </c>
       <c r="N11">
-        <v>2.9685499999999999E-3</v>
+        <v>1.3105180000000003E-2</v>
       </c>
       <c r="O11">
-        <v>2.9392200000000002E-3</v>
+        <v>1.2494540000000002E-2</v>
       </c>
       <c r="P11">
-        <v>4.5440200000000002E-3</v>
+        <v>1.3672295000000004E-2</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7.6744600000000001E-3</v>
+        <v>3.2963264999999999E-2</v>
       </c>
       <c r="B12">
-        <v>4.8749400000000003E-3</v>
+        <v>2.1211575E-2</v>
       </c>
       <c r="C12">
-        <v>3.77488E-3</v>
+        <v>1.503966E-2</v>
       </c>
       <c r="D12">
-        <v>3.14021E-3</v>
+        <v>1.221354E-2</v>
       </c>
       <c r="E12">
-        <v>2.7096300000000002E-3</v>
+        <v>1.0577630000000001E-2</v>
       </c>
       <c r="F12">
-        <v>2.5236600000000001E-3</v>
+        <v>9.8121064999999973E-3</v>
       </c>
       <c r="G12">
-        <v>2.4006399999999999E-3</v>
+        <v>9.6058129999999995E-3</v>
       </c>
       <c r="H12">
-        <v>2.6397700000000001E-3</v>
+        <v>9.3994969999999997E-3</v>
       </c>
       <c r="I12">
-        <v>3.1220900000000001E-3</v>
+        <v>9.9493749999999999E-3</v>
       </c>
       <c r="J12">
-        <v>3.1023000000000001E-3</v>
+        <v>1.02645545E-2</v>
       </c>
       <c r="K12">
-        <v>3.0410300000000001E-3</v>
+        <v>1.0073856000000001E-2</v>
       </c>
       <c r="L12">
-        <v>2.7060500000000002E-3</v>
+        <v>1.0052340999999998E-2</v>
       </c>
       <c r="M12">
-        <v>3.0534300000000002E-3</v>
+        <v>1.15337255E-2</v>
       </c>
       <c r="N12">
-        <v>2.62451E-3</v>
+        <v>1.17049005E-2</v>
       </c>
       <c r="O12">
-        <v>2.5501299999999998E-3</v>
+        <v>1.1019114999999999E-2</v>
       </c>
       <c r="P12">
-        <v>3.1027799999999999E-3</v>
+        <v>1.1378579499999998E-2</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7.6889999999999997E-3</v>
+        <v>1.8342449999999996E-2</v>
       </c>
       <c r="B13">
-        <v>4.6837299999999997E-3</v>
+        <v>1.2359865000000001E-2</v>
       </c>
       <c r="C13">
-        <v>3.7815600000000002E-3</v>
+        <v>7.5650344999999997E-3</v>
       </c>
       <c r="D13">
-        <v>3.0961000000000001E-3</v>
+        <v>7.2787199999999998E-3</v>
       </c>
       <c r="E13">
-        <v>2.4504700000000002E-3</v>
+        <v>7.6713325000000001E-3</v>
       </c>
       <c r="F13">
-        <v>2.5627599999999999E-3</v>
+        <v>6.8454975000000013E-3</v>
       </c>
       <c r="G13">
-        <v>2.48051E-3</v>
+        <v>7.0854455000000007E-3</v>
       </c>
       <c r="H13">
-        <v>2.54893E-3</v>
+        <v>7.0249094999999982E-3</v>
       </c>
       <c r="I13">
-        <v>3.1666799999999998E-3</v>
+        <v>8.2186000000000013E-3</v>
       </c>
       <c r="J13">
-        <v>2.9573400000000001E-3</v>
+        <v>7.7388149999999987E-3</v>
       </c>
       <c r="K13">
-        <v>3.3323799999999998E-3</v>
+        <v>7.5056755000000005E-3</v>
       </c>
       <c r="L13">
-        <v>2.7239299999999998E-3</v>
+        <v>7.1243424999999985E-3</v>
       </c>
       <c r="M13">
-        <v>3.0658199999999999E-3</v>
+        <v>7.575891999999999E-3</v>
       </c>
       <c r="N13">
-        <v>3.28517E-3</v>
+        <v>8.5757240000000016E-3</v>
       </c>
       <c r="O13">
-        <v>4.9221500000000001E-3</v>
+        <v>7.842613E-3</v>
       </c>
       <c r="P13">
-        <v>4.4143200000000002E-3</v>
+        <v>7.4079030000000021E-3</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7.8964199999999995E-3</v>
+        <v>1.8691795000000004E-2</v>
       </c>
       <c r="B14">
-        <v>4.6823000000000004E-3</v>
+        <v>9.6849445000000006E-3</v>
       </c>
       <c r="C14">
-        <v>3.72624E-3</v>
+        <v>7.5671669999999979E-3</v>
       </c>
       <c r="D14">
-        <v>3.0274400000000002E-3</v>
+        <v>6.9772005E-3</v>
       </c>
       <c r="E14">
-        <v>2.71893E-3</v>
+        <v>6.8887589999999995E-3</v>
       </c>
       <c r="F14">
-        <v>2.5591899999999998E-3</v>
+        <v>6.8240049999999993E-3</v>
       </c>
       <c r="G14">
-        <v>2.5723E-3</v>
+        <v>6.8724985000000001E-3</v>
       </c>
       <c r="H14">
-        <v>2.738E-3</v>
+        <v>6.8520415000000003E-3</v>
       </c>
       <c r="I14">
-        <v>2.93159E-3</v>
+        <v>8.2183610000000004E-3</v>
       </c>
       <c r="J14">
-        <v>3.67045E-3</v>
+        <v>7.5728175000000005E-3</v>
       </c>
       <c r="K14">
-        <v>2.7220199999999999E-3</v>
+        <v>7.8595169999999999E-3</v>
       </c>
       <c r="L14">
-        <v>3.7832299999999998E-3</v>
+        <v>8.4240435000000006E-3</v>
       </c>
       <c r="M14">
-        <v>3.0882399999999999E-3</v>
+        <v>9.2032024999999986E-3</v>
       </c>
       <c r="N14">
-        <v>2.5339099999999999E-3</v>
+        <v>1.0340886999999998E-2</v>
       </c>
       <c r="O14">
-        <v>2.52724E-3</v>
+        <v>9.3535275000000001E-3</v>
       </c>
       <c r="P14">
-        <v>3.17454E-3</v>
+        <v>9.575593000000002E-3</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7.4369900000000001E-3</v>
+        <v>6.3597085000000001E-3</v>
       </c>
       <c r="B15">
-        <v>4.6558399999999996E-3</v>
+        <v>4.006207999999999E-3</v>
       </c>
       <c r="C15">
-        <v>3.7078900000000001E-3</v>
+        <v>3.3291454999999997E-3</v>
       </c>
       <c r="D15">
-        <v>3.24202E-3</v>
+        <v>3.0844100000000005E-3</v>
       </c>
       <c r="E15">
-        <v>2.7420500000000002E-3</v>
+        <v>3.0478240000000002E-3</v>
       </c>
       <c r="F15">
-        <v>2.9501900000000001E-3</v>
+        <v>2.9056920000000005E-3</v>
       </c>
       <c r="G15">
-        <v>2.3560500000000002E-3</v>
+        <v>2.8961180000000005E-3</v>
       </c>
       <c r="H15">
-        <v>2.6600399999999998E-3</v>
+        <v>2.7732729999999997E-3</v>
       </c>
       <c r="I15">
-        <v>2.9940600000000002E-3</v>
+        <v>3.1607864999999998E-3</v>
       </c>
       <c r="J15">
-        <v>2.9501900000000001E-3</v>
+        <v>3.060246E-3</v>
       </c>
       <c r="K15">
-        <v>2.8011799999999999E-3</v>
+        <v>2.9327275000000002E-3</v>
       </c>
       <c r="L15">
-        <v>2.92063E-3</v>
+        <v>2.9916890000000001E-3</v>
       </c>
       <c r="M15">
-        <v>2.6946100000000001E-3</v>
+        <v>3.1706690000000001E-3</v>
       </c>
       <c r="N15">
-        <v>3.0963399999999999E-3</v>
+        <v>2.9908885000000003E-3</v>
       </c>
       <c r="O15">
-        <v>2.8383700000000002E-3</v>
+        <v>3.0867354999999995E-3</v>
       </c>
       <c r="P15">
-        <v>2.6314300000000001E-3</v>
+        <v>2.8754365E-3</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>7.31111E-3</v>
+        <v>1.0967895000000002E-2</v>
       </c>
       <c r="B16">
-        <v>4.5661900000000004E-3</v>
+        <v>7.3018430000000006E-3</v>
       </c>
       <c r="C16">
-        <v>3.6609199999999998E-3</v>
+        <v>5.9912804999999996E-3</v>
       </c>
       <c r="D16">
-        <v>3.0663000000000001E-3</v>
+        <v>5.1990635E-3</v>
       </c>
       <c r="E16">
-        <v>2.7520700000000001E-3</v>
+        <v>4.8068410000000001E-3</v>
       </c>
       <c r="F16">
-        <v>2.53272E-3</v>
+        <v>4.6218869999999999E-3</v>
       </c>
       <c r="G16">
-        <v>2.6140199999999999E-3</v>
+        <v>4.450655500000001E-3</v>
       </c>
       <c r="H16">
-        <v>2.6817299999999998E-3</v>
+        <v>4.3097370000000001E-3</v>
       </c>
       <c r="I16">
-        <v>3.0717800000000001E-3</v>
+        <v>4.8087355000000003E-3</v>
       </c>
       <c r="J16">
-        <v>2.91348E-3</v>
+        <v>4.6856514999999987E-3</v>
       </c>
       <c r="K16">
-        <v>3.0000199999999999E-3</v>
+        <v>4.5004235000000005E-3</v>
       </c>
       <c r="L16">
-        <v>2.5880299999999998E-3</v>
+        <v>4.3045884999999996E-3</v>
       </c>
       <c r="M16">
-        <v>3.0891899999999999E-3</v>
+        <v>4.188561999999999E-3</v>
       </c>
       <c r="N16">
-        <v>2.5208000000000001E-3</v>
+        <v>4.165864E-3</v>
       </c>
       <c r="O16">
-        <v>3.2398700000000002E-3</v>
+        <v>4.1151989999999999E-3</v>
       </c>
       <c r="P16">
-        <v>2.7420500000000002E-3</v>
+        <v>4.1067840000000005E-3</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7.8628099999999996E-3</v>
+        <v>8.5459589999999988E-3</v>
       </c>
       <c r="B17">
-        <v>4.7295100000000001E-3</v>
+        <v>5.0246249999999996E-3</v>
       </c>
       <c r="C17">
-        <v>3.62992E-3</v>
+        <v>3.8578040000000003E-3</v>
       </c>
       <c r="D17">
-        <v>3.1740700000000002E-3</v>
+        <v>3.4728059999999997E-3</v>
       </c>
       <c r="E17">
-        <v>2.5403499999999998E-3</v>
+        <v>3.4551494999999995E-3</v>
       </c>
       <c r="F17">
-        <v>2.6576500000000001E-3</v>
+        <v>3.3859374999999996E-3</v>
       </c>
       <c r="G17">
-        <v>2.8097600000000001E-3</v>
+        <v>3.4182559999999993E-3</v>
       </c>
       <c r="H17">
-        <v>2.6397700000000001E-3</v>
+        <v>3.3981200000000001E-3</v>
       </c>
       <c r="I17">
-        <v>3.0067000000000002E-3</v>
+        <v>3.8595915000000001E-3</v>
       </c>
       <c r="J17">
-        <v>2.99644E-3</v>
+        <v>4.0176995000000002E-3</v>
       </c>
       <c r="K17">
-        <v>3.1266200000000001E-3</v>
+        <v>3.7749045000000001E-3</v>
       </c>
       <c r="L17">
-        <v>3.0317299999999998E-3</v>
+        <v>3.9622900000000003E-3</v>
       </c>
       <c r="M17">
-        <v>2.4244800000000001E-3</v>
+        <v>4.3410175000000006E-3</v>
       </c>
       <c r="N17">
-        <v>2.43926E-3</v>
+        <v>4.4095029999999995E-3</v>
       </c>
       <c r="O17">
-        <v>2.4676300000000002E-3</v>
+        <v>4.3541780000000002E-3</v>
       </c>
       <c r="P17">
-        <v>3.6570999999999999E-3</v>
+        <v>4.4138795000000005E-3</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8.0156299999999993E-3</v>
+        <v>2.0873010000000001E-2</v>
       </c>
       <c r="B18">
-        <v>4.5883699999999996E-3</v>
+        <v>1.3501229999999999E-2</v>
       </c>
       <c r="C18">
-        <v>3.7093199999999999E-3</v>
+        <v>1.2341154999999999E-2</v>
       </c>
       <c r="D18">
-        <v>3.08633E-3</v>
+        <v>1.1891725000000001E-2</v>
       </c>
       <c r="E18">
-        <v>2.7508699999999999E-3</v>
+        <v>1.1636419999999998E-2</v>
       </c>
       <c r="F18">
-        <v>2.4614300000000001E-3</v>
+        <v>1.173634E-2</v>
       </c>
       <c r="G18">
-        <v>2.6574099999999998E-3</v>
+        <v>1.162231E-2</v>
       </c>
       <c r="H18">
-        <v>2.4082700000000001E-3</v>
+        <v>1.1664654999999999E-2</v>
       </c>
       <c r="I18">
-        <v>3.1750200000000002E-3</v>
+        <v>1.2958429999999998E-2</v>
       </c>
       <c r="J18">
-        <v>3.1652500000000001E-3</v>
+        <v>1.2681575E-2</v>
       </c>
       <c r="K18">
-        <v>2.7277500000000001E-3</v>
+        <v>1.2563539999999998E-2</v>
       </c>
       <c r="L18">
-        <v>2.7310799999999999E-3</v>
+        <v>1.2402304999999999E-2</v>
       </c>
       <c r="M18">
-        <v>3.1518900000000001E-3</v>
+        <v>1.1764624999999997E-2</v>
       </c>
       <c r="N18">
-        <v>2.9397E-3</v>
+        <v>1.1675815000000003E-2</v>
       </c>
       <c r="O18">
-        <v>2.8758E-3</v>
+        <v>1.1786930000000001E-2</v>
       </c>
       <c r="P18">
-        <v>2.9239700000000001E-3</v>
+        <v>1.1518195000000002E-2</v>
+      </c>
+      <c r="R18">
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7.6265300000000003E-3</v>
+        <v>2.2544825000000004E-2</v>
       </c>
       <c r="B19">
-        <v>4.6460599999999996E-3</v>
+        <v>2.1809565E-2</v>
       </c>
       <c r="C19">
-        <v>3.6997800000000002E-3</v>
+        <v>2.1356084999999993E-2</v>
       </c>
       <c r="D19">
-        <v>3.1652500000000001E-3</v>
+        <v>2.1429004999999997E-2</v>
       </c>
       <c r="E19">
-        <v>2.6702900000000001E-3</v>
+        <v>2.137354E-2</v>
       </c>
       <c r="F19">
-        <v>2.6333300000000001E-3</v>
+        <v>2.1377790000000001E-2</v>
       </c>
       <c r="G19">
-        <v>2.7997500000000002E-3</v>
+        <v>2.1372809999999999E-2</v>
       </c>
       <c r="H19">
-        <v>2.5765900000000001E-3</v>
+        <v>2.1412739999999996E-2</v>
       </c>
       <c r="I19">
-        <v>3.2889799999999999E-3</v>
+        <v>2.1428645E-2</v>
       </c>
       <c r="J19">
-        <v>2.9444699999999998E-3</v>
+        <v>2.1554344999999999E-2</v>
       </c>
       <c r="K19">
-        <v>2.9168100000000001E-3</v>
+        <v>2.1566189999999999E-2</v>
       </c>
       <c r="L19">
-        <v>3.0458E-3</v>
+        <v>2.1424799999999997E-2</v>
       </c>
       <c r="M19">
-        <v>2.6357199999999998E-3</v>
+        <v>2.1520900000000003E-2</v>
       </c>
       <c r="N19">
-        <v>2.9802299999999999E-3</v>
+        <v>2.1533125E-2</v>
       </c>
       <c r="O19">
-        <v>2.8686499999999999E-3</v>
+        <v>2.1400019999999999E-2</v>
       </c>
       <c r="P19">
-        <v>2.8448100000000001E-3</v>
+        <v>2.0933360000000002E-2</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7.2753399999999999E-3</v>
+        <v>0.14642869999999997</v>
       </c>
       <c r="B20">
-        <v>4.6019600000000004E-3</v>
+        <v>0.10070938500000001</v>
       </c>
       <c r="C20">
-        <v>3.65424E-3</v>
+        <v>7.1951435000000022E-2</v>
       </c>
       <c r="D20">
-        <v>3.0586699999999999E-3</v>
+        <v>5.9581739999999994E-2</v>
       </c>
       <c r="E20">
-        <v>2.7167799999999998E-3</v>
+        <v>5.0439980000000009E-2</v>
       </c>
       <c r="F20">
-        <v>2.7275099999999998E-3</v>
+        <v>4.4846490000000003E-2</v>
       </c>
       <c r="G20">
-        <v>2.2611599999999999E-3</v>
+        <v>4.2138124999999992E-2</v>
       </c>
       <c r="H20">
-        <v>2.4638199999999998E-3</v>
+        <v>3.9066530000000002E-2</v>
       </c>
       <c r="I20">
-        <v>3.1156500000000002E-3</v>
+        <v>4.1870649999999995E-2</v>
       </c>
       <c r="J20">
-        <v>2.9883399999999999E-3</v>
+        <v>4.0422515000000006E-2</v>
       </c>
       <c r="K20">
-        <v>2.8107200000000001E-3</v>
+        <v>3.8961829999999996E-2</v>
       </c>
       <c r="L20">
-        <v>2.6473999999999998E-3</v>
+        <v>3.904980000000001E-2</v>
       </c>
       <c r="M20">
-        <v>2.5694400000000001E-3</v>
+        <v>3.745163E-2</v>
       </c>
       <c r="N20">
-        <v>2.3915799999999999E-3</v>
+        <v>3.6051889999999989E-2</v>
       </c>
       <c r="O20">
-        <v>3.3278499999999998E-3</v>
+        <v>3.5780294999999997E-2</v>
       </c>
       <c r="P20">
-        <v>2.8903499999999999E-3</v>
+        <v>3.4786754999999996E-2</v>
+      </c>
+      <c r="R20">
+        <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7.8048700000000002E-3</v>
+        <v>6.7574919999999997E-2</v>
       </c>
       <c r="B21">
-        <v>4.5874100000000001E-3</v>
+        <v>5.8482565000000007E-2</v>
       </c>
       <c r="C21">
-        <v>3.5886799999999999E-3</v>
+        <v>3.8488745000000005E-2</v>
       </c>
       <c r="D21">
-        <v>3.05653E-3</v>
+        <v>2.717139E-2</v>
       </c>
       <c r="E21">
-        <v>2.54989E-3</v>
+        <v>2.3832840000000001E-2</v>
       </c>
       <c r="F21">
-        <v>2.6269000000000002E-3</v>
+        <v>2.1387985000000002E-2</v>
       </c>
       <c r="G21">
-        <v>2.42472E-3</v>
+        <v>1.8670229999999996E-2</v>
       </c>
       <c r="H21">
-        <v>2.34008E-3</v>
+        <v>1.6546310000000002E-2</v>
       </c>
       <c r="I21">
-        <v>3.1616700000000001E-3</v>
+        <v>1.6364009999999998E-2</v>
       </c>
       <c r="J21">
-        <v>2.99191E-3</v>
+        <v>1.5230315000000003E-2</v>
       </c>
       <c r="K21">
-        <v>3.2219900000000001E-3</v>
+        <v>1.5502014999999999E-2</v>
       </c>
       <c r="L21">
-        <v>3.26085E-3</v>
+        <v>1.6650495000000001E-2</v>
       </c>
       <c r="M21">
-        <v>2.6643299999999999E-3</v>
+        <v>1.6741335E-2</v>
       </c>
       <c r="N21">
-        <v>2.5270000000000002E-3</v>
+        <v>1.6088885000000001E-2</v>
       </c>
       <c r="O21">
-        <v>2.7134400000000001E-3</v>
+        <v>1.5081990000000003E-2</v>
       </c>
       <c r="P21">
-        <v>2.8123900000000001E-3</v>
+        <v>1.4379134999999998E-2</v>
+      </c>
+      <c r="R21">
+        <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7.5106599999999997E-3</v>
+        <v>1.2556764999999998E-2</v>
       </c>
       <c r="B22">
-        <v>4.7471500000000003E-3</v>
+        <v>8.4056145000000002E-3</v>
       </c>
       <c r="C22">
-        <v>3.7500900000000002E-3</v>
+        <v>6.3025600000000005E-3</v>
       </c>
       <c r="D22">
-        <v>3.01528E-3</v>
+        <v>5.1432370000000002E-3</v>
       </c>
       <c r="E22">
-        <v>2.86937E-3</v>
+        <v>4.4658069999999996E-3</v>
       </c>
       <c r="F22">
-        <v>2.702E-3</v>
+        <v>3.8096305000000002E-3</v>
       </c>
       <c r="G22">
-        <v>2.5298600000000001E-3</v>
+        <v>3.5670989999999998E-3</v>
       </c>
       <c r="H22">
-        <v>2.5019600000000001E-3</v>
+        <v>3.4266459999999998E-3</v>
       </c>
       <c r="I22">
-        <v>3.00622E-3</v>
+        <v>3.9296984999999986E-3</v>
       </c>
       <c r="J22">
-        <v>2.9625900000000002E-3</v>
+        <v>3.7125459999999997E-3</v>
       </c>
       <c r="K22">
-        <v>2.7816300000000002E-3</v>
+        <v>3.6031960000000003E-3</v>
       </c>
       <c r="L22">
-        <v>3.89457E-3</v>
+        <v>3.7854315000000012E-3</v>
       </c>
       <c r="M22">
-        <v>2.5699099999999999E-3</v>
+        <v>4.1862480000000009E-3</v>
       </c>
       <c r="N22">
-        <v>2.9654500000000001E-3</v>
+        <v>4.2076000000000006E-3</v>
       </c>
       <c r="O22">
-        <v>2.7201199999999999E-3</v>
+        <v>3.9516925000000003E-3</v>
       </c>
       <c r="P22">
-        <v>2.8493400000000001E-3</v>
+        <v>4.1091685000000005E-3</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.9692910000000001E-2</v>
+      </c>
+      <c r="B23">
+        <v>1.1788085E-2</v>
+      </c>
+      <c r="C23">
+        <v>9.0675115000000018E-3</v>
+      </c>
+      <c r="D23">
+        <v>7.3441869999999994E-3</v>
+      </c>
+      <c r="E23">
+        <v>6.4087639999999991E-3</v>
+      </c>
+      <c r="F23">
+        <v>5.7174680000000007E-3</v>
+      </c>
+      <c r="G23">
+        <v>5.2658564999999999E-3</v>
+      </c>
+      <c r="H23">
+        <v>5.1270715000000001E-3</v>
+      </c>
+      <c r="I23">
+        <v>5.6175944999999998E-3</v>
+      </c>
+      <c r="J23">
+        <v>5.6224829999999993E-3</v>
+      </c>
+      <c r="K23">
+        <v>5.4325215000000007E-3</v>
+      </c>
+      <c r="L23">
+        <v>5.3509359999999988E-3</v>
+      </c>
+      <c r="M23">
+        <v>5.2575469999999996E-3</v>
+      </c>
+      <c r="N23">
+        <v>5.4958814999999991E-3</v>
+      </c>
+      <c r="O23">
+        <v>5.1890239999999995E-3</v>
+      </c>
+      <c r="P23">
+        <v>5.6890725000000005E-3</v>
+      </c>
+      <c r="R23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6.6894609999999993E-2</v>
+      </c>
+      <c r="B24">
+        <v>3.1534465000000005E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.1732330000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.7681760000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.5461600000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.3357454999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.1954859999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.0855703500000001E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.3329444999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.326446E-2</v>
+      </c>
+      <c r="K24">
+        <v>1.2595399999999998E-2</v>
+      </c>
+      <c r="L24">
+        <v>1.2190690000000001E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.322595E-2</v>
+      </c>
+      <c r="N24">
+        <v>1.4774974999999996E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.2027549000000002E-2</v>
+      </c>
+      <c r="P24">
+        <v>1.3130002500000001E-2</v>
+      </c>
+      <c r="R24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.4995959999999998E-2</v>
+      </c>
+      <c r="B25">
+        <v>1.8830395E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.5589559999999997E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.1903695000000002E-2</v>
+      </c>
+      <c r="E25">
+        <v>9.6145410000000008E-3</v>
+      </c>
+      <c r="F25">
+        <v>8.5932244999999997E-3</v>
+      </c>
+      <c r="G25">
+        <v>7.7117794999999999E-3</v>
+      </c>
+      <c r="H25">
+        <v>7.2299719999999994E-3</v>
+      </c>
+      <c r="I25">
+        <v>6.4620025000000011E-3</v>
+      </c>
+      <c r="J25">
+        <v>6.8974739999999989E-3</v>
+      </c>
+      <c r="K25">
+        <v>6.1013935000000016E-3</v>
+      </c>
+      <c r="L25">
+        <v>5.5154680000000008E-3</v>
+      </c>
+      <c r="M25">
+        <v>5.6762814999999998E-3</v>
+      </c>
+      <c r="N25">
+        <v>6.1513065000000002E-3</v>
+      </c>
+      <c r="O25">
+        <v>5.2032470000000011E-3</v>
+      </c>
+      <c r="P25">
+        <v>5.1353095000000008E-3</v>
+      </c>
+      <c r="R25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7.0785934999999994E-2</v>
+      </c>
+      <c r="B26">
+        <v>5.7167864999999998E-2</v>
+      </c>
+      <c r="C26">
+        <v>5.1286270000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>4.5470295000000008E-2</v>
+      </c>
+      <c r="E26">
+        <v>4.1620954999999994E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.7605645000000007E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.4441840000000008E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.2125450000000007E-2</v>
+      </c>
+      <c r="I26">
+        <v>3.0373615000000003E-2</v>
+      </c>
+      <c r="J26">
+        <v>2.9511234999999997E-2</v>
+      </c>
+      <c r="K26">
+        <v>2.7686054999999998E-2</v>
+      </c>
+      <c r="L26">
+        <v>2.7701029999999998E-2</v>
+      </c>
+      <c r="M26">
+        <v>2.8148735000000001E-2</v>
+      </c>
+      <c r="N26">
+        <v>2.6813235000000001E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.5818004999999998E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.4994405000000004E-2</v>
+      </c>
+      <c r="R26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4.8480435000000002E-2</v>
+      </c>
+      <c r="B27">
+        <v>3.7970309999999993E-2</v>
+      </c>
+      <c r="C27">
+        <v>3.3156135000000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>2.939288E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.7519734999999997E-2</v>
+      </c>
+      <c r="F27">
+        <v>2.4533715000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>2.2534144999999998E-2</v>
+      </c>
+      <c r="H27">
+        <v>2.2152689999999996E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.0114260000000005E-2</v>
+      </c>
+      <c r="J27">
+        <v>2.0674255000000002E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.9378290000000003E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.9186140000000001E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.8659025000000003E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.8491645000000004E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.7676479999999998E-2</v>
+      </c>
+      <c r="P27">
+        <v>1.6500954999999998E-2</v>
+      </c>
+      <c r="R27">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/1proc_balanced_varyingThreadCounts.xlsx
+++ b/1proc_balanced_varyingThreadCounts.xlsx
@@ -9,11 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="1260" windowWidth="33720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37360" yWindow="460" windowWidth="33720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1proc_barriers_mva_balanced_var" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'1proc_barriers_mva_balanced_var'!$A$10:$P$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'1proc_barriers_mva_balanced_var'!$A$11:$P$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'1proc_barriers_mva_balanced_var'!$A$20:$P$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'1proc_barriers_mva_balanced_var'!$A$21:$P$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'1proc_barriers_mva_balanced_var'!$A$22:$P$22</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'1proc_barriers_mva_balanced_var'!$A$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'1proc_barriers_mva_balanced_var'!$A$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'1proc_barriers_mva_balanced_var'!$A$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'1proc_barriers_mva_balanced_var'!$A$5:$P$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'1proc_barriers_mva_balanced_var'!$A$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'1proc_barriers_mva_balanced_var'!$A$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'1proc_barriers_mva_balanced_var'!$A$8:$P$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'1proc_barriers_mva_balanced_var'!$A$12:$P$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'1proc_barriers_mva_balanced_var'!$A$9:$P$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'1proc_barriers_mva_balanced_var'!$A$13:$P$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'1proc_barriers_mva_balanced_var'!$A$14:$P$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'1proc_barriers_mva_balanced_var'!$A$15:$P$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'1proc_barriers_mva_balanced_var'!$A$16:$P$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'1proc_barriers_mva_balanced_var'!$A$17:$P$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'1proc_barriers_mva_balanced_var'!$A$18:$P$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'1proc_barriers_mva_balanced_var'!$A$19:$P$19</definedName>
+  </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -588,7 +611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -598,12 +621,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2500" baseline="0">
+              <a:rPr lang="en-US" sz="2600" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Multithreaded SpMV Time Computation Time</a:t>
+              <a:t>Multithreaded SpMV Computation Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -612,8 +635,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14188853729732379"/>
-          <c:y val="2.0289855072463767E-2"/>
+          <c:x val="0.2399341781496063"/>
+          <c:y val="1.0182111851403188E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -629,7 +652,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -650,40 +673,30 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13329371795815242"/>
-          <c:y val="0.14613465708090836"/>
+          <c:y val="0.10670815341630684"/>
           <c:w val="0.84314715333480517"/>
-          <c:h val="0.68247198448020086"/>
+          <c:h val="0.72189851268591421"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -739,8 +752,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$3:$P$3</c:f>
               <c:numCache>
@@ -796,7 +809,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -808,28 +821,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -885,8 +888,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$4:$P$4</c:f>
               <c:numCache>
@@ -942,7 +945,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -954,28 +957,18 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1031,8 +1024,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$5:$P$5</c:f>
               <c:numCache>
@@ -1088,7 +1081,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1100,28 +1093,18 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1177,8 +1160,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$6:$P$6</c:f>
               <c:numCache>
@@ -1234,7 +1217,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1246,28 +1229,18 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1323,8 +1296,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$7:$P$7</c:f>
               <c:numCache>
@@ -1380,7 +1353,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1392,28 +1365,18 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1469,8 +1432,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$8:$P$8</c:f>
               <c:numCache>
@@ -1526,7 +1489,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1538,32 +1501,20 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1619,8 +1570,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$9:$P$9</c:f>
               <c:numCache>
@@ -1676,7 +1627,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1688,32 +1639,20 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1769,8 +1708,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$10:$P$10</c:f>
               <c:numCache>
@@ -1826,7 +1765,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1838,32 +1777,20 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -1919,8 +1846,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$11:$P$11</c:f>
               <c:numCache>
@@ -1976,7 +1903,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1988,32 +1915,20 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2069,8 +1984,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$12:$P$12</c:f>
               <c:numCache>
@@ -2126,7 +2041,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2138,32 +2053,20 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2219,8 +2122,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$13:$P$13</c:f>
               <c:numCache>
@@ -2276,7 +2179,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2288,32 +2191,20 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2369,8 +2260,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$14:$P$14</c:f>
               <c:numCache>
@@ -2426,7 +2317,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2438,34 +2329,21 @@
           <c:idx val="12"/>
           <c:order val="12"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2521,8 +2399,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$15:$P$15</c:f>
               <c:numCache>
@@ -2578,7 +2456,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2590,34 +2468,21 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2673,8 +2538,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$16:$P$16</c:f>
               <c:numCache>
@@ -2730,7 +2595,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2742,34 +2607,21 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2825,8 +2677,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$17:$P$17</c:f>
               <c:numCache>
@@ -2882,7 +2734,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2894,34 +2746,21 @@
           <c:idx val="15"/>
           <c:order val="15"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -2977,8 +2816,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$18:$P$18</c:f>
               <c:numCache>
@@ -3034,7 +2873,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3046,34 +2885,21 @@
           <c:idx val="16"/>
           <c:order val="16"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -3129,8 +2955,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$19:$P$19</c:f>
               <c:numCache>
@@ -3186,7 +3012,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3198,34 +3024,21 @@
           <c:idx val="17"/>
           <c:order val="17"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="80000"/>
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -3281,8 +3094,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$20:$P$20</c:f>
               <c:numCache>
@@ -3338,7 +3151,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3350,32 +3163,20 @@
           <c:idx val="18"/>
           <c:order val="18"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -3431,8 +3232,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$21:$P$21</c:f>
               <c:numCache>
@@ -3488,7 +3289,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3500,32 +3301,20 @@
           <c:idx val="19"/>
           <c:order val="19"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$2:$P$2</c:f>
               <c:numCache>
@@ -3581,8 +3370,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'1proc_barriers_mva_balanced_var'!$A$22:$P$22</c:f>
               <c:numCache>
@@ -3638,7 +3427,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3654,15 +3443,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1187620687"/>
         <c:axId val="1187622383"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="1187620687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3687,7 +3475,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3697,7 +3485,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3728,7 +3516,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3780,9 +3568,11 @@
         </c:txPr>
         <c:crossAx val="1187622383"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1187622383"/>
         <c:scaling>
@@ -3826,7 +3616,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3836,7 +3626,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -3850,8 +3640,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.135550813157701E-2"/>
-              <c:y val="0.42663608353303656"/>
+              <c:x val="1.5875164041994753E-3"/>
+              <c:y val="0.40804080941495219"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3867,7 +3657,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3919,7 +3709,7 @@
         </c:txPr>
         <c:crossAx val="1187620687"/>
         <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3970,6 +3760,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4533,16 +4324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4568,6 +4359,153 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26563</cdr:x>
+      <cdr:y>0.07863</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78906</cdr:x>
+      <cdr:y>0.13675</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14EFE28-EA00-A747-8377-E8529158B939}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2590800" y="584200"/>
+          <a:ext cx="5105400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66016</cdr:x>
+      <cdr:y>0.10805</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97396</cdr:x>
+      <cdr:y>0.28315</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5620ACF-0E2C-C344-8DCC-6BF3FA379DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6438900" y="765712"/>
+          <a:ext cx="3060700" cy="1240888"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>         Benchmark matrices</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> with higher NNZ per row appear at the top, with lower NNZ per row at the bottom.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67318</cdr:x>
+      <cdr:y>0.13441</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70703</cdr:x>
+      <cdr:y>0.13441</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECE2F38-1E91-7A40-9C17-898B3DFEFEED}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6565900" y="952500"/>
+          <a:ext cx="330200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4869,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
